--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1368.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1368.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213627398878975</v>
+        <v>1.26415479183197</v>
       </c>
       <c r="B1">
-        <v>2.57670361297812</v>
+        <v>2.770501375198364</v>
       </c>
       <c r="C1">
-        <v>3.680712879768532</v>
+        <v>8.83018970489502</v>
       </c>
       <c r="D1">
-        <v>2.970006483680055</v>
+        <v>2.036558628082275</v>
       </c>
       <c r="E1">
-        <v>1.12884873903497</v>
+        <v>1.130433559417725</v>
       </c>
     </row>
   </sheetData>
